--- a/単語帳.xlsx
+++ b/単語帳.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>時期</t>
     <rPh sb="0" eb="2">
@@ -551,13 +551,434 @@
     <t>じてんしゃそうぎょう</t>
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
+  <si>
+    <t>もやもや</t>
+  </si>
+  <si>
+    <t>凩</t>
+  </si>
+  <si>
+    <t>匁</t>
+  </si>
+  <si>
+    <t>榊</t>
+  </si>
+  <si>
+    <t>行脚</t>
+  </si>
+  <si>
+    <t>赤札</t>
+  </si>
+  <si>
+    <t>白菊</t>
+  </si>
+  <si>
+    <t>牡鹿</t>
+  </si>
+  <si>
+    <t>白鷺</t>
+  </si>
+  <si>
+    <t>風下</t>
+  </si>
+  <si>
+    <t>白妙</t>
+  </si>
+  <si>
+    <t>銀杏</t>
+  </si>
+  <si>
+    <t>元和</t>
+  </si>
+  <si>
+    <t>算盤</t>
+  </si>
+  <si>
+    <t>和尚</t>
+  </si>
+  <si>
+    <t>口下手</t>
+  </si>
+  <si>
+    <t>観音</t>
+  </si>
+  <si>
+    <t>白馬</t>
+  </si>
+  <si>
+    <t>てきぱき</t>
+  </si>
+  <si>
+    <t>こがらし</t>
+  </si>
+  <si>
+    <t>もんめ</t>
+  </si>
+  <si>
+    <t>さかき</t>
+  </si>
+  <si>
+    <r>
+      <t>杨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>桐</t>
+    </r>
+  </si>
+  <si>
+    <t>あんぎゃ</t>
+  </si>
+  <si>
+    <t>云游</t>
+  </si>
+  <si>
+    <t>あかふだ</t>
+  </si>
+  <si>
+    <t>已售品</t>
+  </si>
+  <si>
+    <t>しらぎく</t>
+  </si>
+  <si>
+    <t>おじか</t>
+  </si>
+  <si>
+    <t>雄鹿</t>
+  </si>
+  <si>
+    <t>しらさぎ</t>
+  </si>
+  <si>
+    <r>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鹭</t>
+    </r>
+  </si>
+  <si>
+    <t>かざしも</t>
+  </si>
+  <si>
+    <r>
+      <t>下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+  </si>
+  <si>
+    <t>しろたえ</t>
+  </si>
+  <si>
+    <t>白布</t>
+  </si>
+  <si>
+    <t>いちょう</t>
+  </si>
+  <si>
+    <r>
+      <t>银</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>杏</t>
+    </r>
+  </si>
+  <si>
+    <t>げんな</t>
+  </si>
+  <si>
+    <t>そろばん</t>
+  </si>
+  <si>
+    <r>
+      <t>算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盘</t>
+    </r>
+  </si>
+  <si>
+    <t>おしょう</t>
+  </si>
+  <si>
+    <t>くちべた</t>
+  </si>
+  <si>
+    <t>笨口拙舌</t>
+  </si>
+  <si>
+    <t>かんのう</t>
+  </si>
+  <si>
+    <r>
+      <t>观</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音</t>
+    </r>
+  </si>
+  <si>
+    <t>しろうま</t>
+  </si>
+  <si>
+    <r>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>马</t>
+    </r>
+  </si>
+  <si>
+    <t>麻利</t>
+  </si>
+  <si>
+    <r>
+      <t>﻿朦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>胧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，模糊。（不確実なさま。朦朧。</t>
+    </r>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，秋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> (旧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日本重量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位)"文目";(旧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位)一两</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>银</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子的六十分之一</t>
+    </r>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -622,14 +1043,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -637,6 +1058,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -943,8 +1367,8 @@
   <dimension ref="A1:D1725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -984,6 +1408,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -995,6 +1420,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1006,6 +1432,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1017,6 +1444,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -1028,6 +1456,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1039,6 +1468,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1050,6 +1480,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1061,6 +1492,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1072,6 +1504,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -1083,6 +1516,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1094,6 +1528,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -1105,6 +1540,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -1116,6 +1552,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -1127,6 +1564,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -1137,3073 +1575,3680 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="str">
-        <f t="shared" ref="C16:C64" si="0">PHONETIC(B17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>42696</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
+        <f t="shared" ref="C17:C64" si="0">PHONETIC(B36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2"/>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2"/>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2"/>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2"/>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2"/>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2"/>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2"/>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2"/>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2"/>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2"/>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2"/>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="1:3">
+      <c r="A49" s="2"/>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="1:3">
+      <c r="A50" s="2"/>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="1:3">
+      <c r="A51" s="2"/>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="1:3">
+      <c r="A52" s="2"/>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="1:3">
+      <c r="A53" s="2"/>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="1:3">
+      <c r="A54" s="2"/>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="1:3">
+      <c r="A55" s="2"/>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="1:3">
+      <c r="A56" s="2"/>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="1:3">
+      <c r="A57" s="2"/>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="1:3">
+      <c r="A58" s="2"/>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="1:3">
+      <c r="A59" s="2"/>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="1:3">
+      <c r="A60" s="2"/>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="1:3">
+      <c r="A61" s="2"/>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="1:3">
+      <c r="A62" s="2"/>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="1:3">
+      <c r="A63" s="2"/>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="1:3">
+      <c r="A64" s="2"/>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2"/>
       <c r="C65" t="str">
         <f t="shared" ref="C65:C128" si="1">PHONETIC(B65)</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2"/>
       <c r="C66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="1:3">
+      <c r="A67" s="2"/>
       <c r="C67" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="1:3">
+      <c r="A68" s="2"/>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="1:3">
+      <c r="A69" s="2"/>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="1:3">
+      <c r="A70" s="2"/>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="1:3">
+      <c r="A71" s="2"/>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="1:3">
+      <c r="A72" s="2"/>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="1:3">
+      <c r="A73" s="2"/>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="1:3">
+      <c r="A74" s="2"/>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2"/>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="1:3">
+      <c r="A76" s="2"/>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="1:3">
+      <c r="A77" s="2"/>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="1:3">
+      <c r="A78" s="2"/>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="1:3">
+      <c r="A79" s="2"/>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="1:3">
+      <c r="A80" s="2"/>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="1:3">
+      <c r="A81" s="2"/>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="1:3">
+      <c r="A82" s="2"/>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="1:3">
+      <c r="A83" s="2"/>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="1:3">
+      <c r="A84" s="2"/>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="1:3">
+      <c r="A85" s="2"/>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="1:3">
+      <c r="A86" s="2"/>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="1:3">
+      <c r="A87" s="2"/>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="1:3">
+      <c r="A88" s="2"/>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="1:3">
+      <c r="A89" s="2"/>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="1:3">
+      <c r="A90" s="2"/>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="1:3">
+      <c r="A91" s="2"/>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="1:3">
+      <c r="A92" s="2"/>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="1:3">
+      <c r="A93" s="2"/>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="1:3">
+      <c r="A94" s="2"/>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="1:3">
+      <c r="A95" s="2"/>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="1:3">
+      <c r="A96" s="2"/>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="1:3">
+      <c r="A97" s="2"/>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="1:3">
+      <c r="A98" s="2"/>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="1:3">
+      <c r="A99" s="2"/>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="1:3">
+      <c r="A100" s="2"/>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="1:3">
+      <c r="A101" s="2"/>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="1:3">
+      <c r="A102" s="2"/>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="1:3">
+      <c r="A103" s="2"/>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="1:3">
+      <c r="A104" s="2"/>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="1:3">
+      <c r="A105" s="2"/>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="1:3">
+      <c r="A106" s="2"/>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="1:3">
+      <c r="A107" s="2"/>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="1:3">
+      <c r="A108" s="2"/>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="1:3">
+      <c r="A109" s="2"/>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="1:3">
+      <c r="A110" s="2"/>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="1:3">
+      <c r="A111" s="2"/>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="1:3">
+      <c r="A112" s="2"/>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="1:3">
+      <c r="A113" s="2"/>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="1:3">
+      <c r="A114" s="2"/>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="1:3">
+      <c r="A115" s="2"/>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="3:3">
+    <row r="116" spans="1:3">
+      <c r="A116" s="2"/>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="1:3">
+      <c r="A117" s="2"/>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="1:3">
+      <c r="A118" s="2"/>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="1:3">
+      <c r="A119" s="2"/>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="1:3">
+      <c r="A120" s="2"/>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="3:3">
+    <row r="121" spans="1:3">
+      <c r="A121" s="2"/>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="1:3">
+      <c r="A122" s="2"/>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="1:3">
+      <c r="A123" s="2"/>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="3:3">
+    <row r="124" spans="1:3">
+      <c r="A124" s="2"/>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="3:3">
+    <row r="125" spans="1:3">
+      <c r="A125" s="2"/>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="3:3">
+    <row r="126" spans="1:3">
+      <c r="A126" s="2"/>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="1:3">
+      <c r="A127" s="2"/>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="1:3">
+      <c r="A128" s="2"/>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="1:3">
+      <c r="A129" s="2"/>
       <c r="C129" t="str">
         <f t="shared" ref="C129:C192" si="2">PHONETIC(B129)</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="1:3">
+      <c r="A130" s="2"/>
       <c r="C130" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="1:3">
+      <c r="A131" s="2"/>
       <c r="C131" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="1:3">
+      <c r="A132" s="2"/>
       <c r="C132" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="1:3">
+      <c r="A133" s="2"/>
       <c r="C133" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="1:3">
+      <c r="A134" s="2"/>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="1:3">
+      <c r="A135" s="2"/>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="1:3">
+      <c r="A136" s="2"/>
       <c r="C136" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="1:3">
+      <c r="A137" s="2"/>
       <c r="C137" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="1:3">
+      <c r="A138" s="2"/>
       <c r="C138" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="1:3">
+      <c r="A139" s="2"/>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="1:3">
+      <c r="A140" s="2"/>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="1:3">
+      <c r="A141" s="2"/>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="1:3">
+      <c r="A142" s="2"/>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="1:3">
+      <c r="A143" s="2"/>
       <c r="C143" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="1:3">
+      <c r="A144" s="2"/>
       <c r="C144" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="3:3">
+    <row r="145" spans="1:3">
+      <c r="A145" s="2"/>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="1:3">
+      <c r="A146" s="2"/>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="1:3">
+      <c r="A147" s="2"/>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="3:3">
+    <row r="148" spans="1:3">
+      <c r="A148" s="2"/>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="3:3">
+    <row r="149" spans="1:3">
+      <c r="A149" s="2"/>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="3:3">
+    <row r="150" spans="1:3">
+      <c r="A150" s="2"/>
       <c r="C150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="3:3">
+    <row r="151" spans="1:3">
+      <c r="A151" s="2"/>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="3:3">
+    <row r="152" spans="1:3">
+      <c r="A152" s="2"/>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="3:3">
+    <row r="153" spans="1:3">
+      <c r="A153" s="2"/>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="3:3">
+    <row r="154" spans="1:3">
+      <c r="A154" s="2"/>
       <c r="C154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="3:3">
+    <row r="155" spans="1:3">
+      <c r="A155" s="2"/>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="3:3">
+    <row r="156" spans="1:3">
+      <c r="A156" s="2"/>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="3:3">
+    <row r="157" spans="1:3">
+      <c r="A157" s="2"/>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="3:3">
+    <row r="158" spans="1:3">
+      <c r="A158" s="2"/>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="3:3">
+    <row r="159" spans="1:3">
+      <c r="A159" s="2"/>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="3:3">
+    <row r="160" spans="1:3">
+      <c r="A160" s="2"/>
       <c r="C160" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="1:3">
+      <c r="A161" s="2"/>
       <c r="C161" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="3:3">
+    <row r="162" spans="1:3">
+      <c r="A162" s="2"/>
       <c r="C162" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="3:3">
+    <row r="163" spans="1:3">
+      <c r="A163" s="2"/>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="3:3">
+    <row r="164" spans="1:3">
+      <c r="A164" s="2"/>
       <c r="C164" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="3:3">
+    <row r="165" spans="1:3">
+      <c r="A165" s="2"/>
       <c r="C165" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="3:3">
+    <row r="166" spans="1:3">
+      <c r="A166" s="2"/>
       <c r="C166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="3:3">
+    <row r="167" spans="1:3">
+      <c r="A167" s="2"/>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="1:3">
+      <c r="A168" s="2"/>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="3:3">
+    <row r="169" spans="1:3">
+      <c r="A169" s="2"/>
       <c r="C169" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="1:3">
+      <c r="A170" s="2"/>
       <c r="C170" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="3:3">
+    <row r="171" spans="1:3">
+      <c r="A171" s="2"/>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="3:3">
+    <row r="172" spans="1:3">
+      <c r="A172" s="2"/>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="3:3">
+    <row r="173" spans="1:3">
+      <c r="A173" s="2"/>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="3:3">
+    <row r="174" spans="1:3">
+      <c r="A174" s="2"/>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="3:3">
+    <row r="175" spans="1:3">
+      <c r="A175" s="2"/>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="3:3">
+    <row r="176" spans="1:3">
+      <c r="A176" s="2"/>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="3:3">
+    <row r="177" spans="1:3">
+      <c r="A177" s="2"/>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="3:3">
+    <row r="178" spans="1:3">
+      <c r="A178" s="2"/>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="3:3">
+    <row r="179" spans="1:3">
+      <c r="A179" s="2"/>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="3:3">
+    <row r="180" spans="1:3">
+      <c r="A180" s="2"/>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="3:3">
+    <row r="181" spans="1:3">
+      <c r="A181" s="2"/>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="3:3">
+    <row r="182" spans="1:3">
+      <c r="A182" s="2"/>
       <c r="C182" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="3:3">
+    <row r="183" spans="1:3">
+      <c r="A183" s="2"/>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="3:3">
+    <row r="184" spans="1:3">
+      <c r="A184" s="2"/>
       <c r="C184" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="3:3">
+    <row r="185" spans="1:3">
+      <c r="A185" s="2"/>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="3:3">
+    <row r="186" spans="1:3">
+      <c r="A186" s="2"/>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="3:3">
+    <row r="187" spans="1:3">
+      <c r="A187" s="2"/>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="3:3">
+    <row r="188" spans="1:3">
+      <c r="A188" s="2"/>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="3:3">
+    <row r="189" spans="1:3">
+      <c r="A189" s="2"/>
       <c r="C189" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="3:3">
+    <row r="190" spans="1:3">
+      <c r="A190" s="2"/>
       <c r="C190" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="3:3">
+    <row r="191" spans="1:3">
+      <c r="A191" s="2"/>
       <c r="C191" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="3:3">
+    <row r="192" spans="1:3">
+      <c r="A192" s="2"/>
       <c r="C192" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="3:3">
+    <row r="193" spans="1:3">
+      <c r="A193" s="2"/>
       <c r="C193" t="str">
         <f t="shared" ref="C193:C256" si="3">PHONETIC(B193)</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="3:3">
+    <row r="194" spans="1:3">
+      <c r="A194" s="2"/>
       <c r="C194" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="3:3">
+    <row r="195" spans="1:3">
+      <c r="A195" s="2"/>
       <c r="C195" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="3:3">
+    <row r="196" spans="1:3">
+      <c r="A196" s="2"/>
       <c r="C196" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="3:3">
+    <row r="197" spans="1:3">
+      <c r="A197" s="2"/>
       <c r="C197" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="3:3">
+    <row r="198" spans="1:3">
+      <c r="A198" s="2"/>
       <c r="C198" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="3:3">
+    <row r="199" spans="1:3">
+      <c r="A199" s="2"/>
       <c r="C199" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="3:3">
+    <row r="200" spans="1:3">
+      <c r="A200" s="2"/>
       <c r="C200" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="3:3">
+    <row r="201" spans="1:3">
+      <c r="A201" s="2"/>
       <c r="C201" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="3:3">
+    <row r="202" spans="1:3">
+      <c r="A202" s="2"/>
       <c r="C202" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="3:3">
+    <row r="203" spans="1:3">
+      <c r="A203" s="2"/>
       <c r="C203" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="3:3">
+    <row r="204" spans="1:3">
+      <c r="A204" s="2"/>
       <c r="C204" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="3:3">
+    <row r="205" spans="1:3">
+      <c r="A205" s="2"/>
       <c r="C205" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="3:3">
+    <row r="206" spans="1:3">
+      <c r="A206" s="2"/>
       <c r="C206" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="3:3">
+    <row r="207" spans="1:3">
+      <c r="A207" s="2"/>
       <c r="C207" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="3:3">
+    <row r="208" spans="1:3">
+      <c r="A208" s="2"/>
       <c r="C208" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="3:3">
+    <row r="209" spans="1:3">
+      <c r="A209" s="2"/>
       <c r="C209" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="3:3">
+    <row r="210" spans="1:3">
+      <c r="A210" s="2"/>
       <c r="C210" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="3:3">
+    <row r="211" spans="1:3">
+      <c r="A211" s="2"/>
       <c r="C211" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="3:3">
+    <row r="212" spans="1:3">
+      <c r="A212" s="2"/>
       <c r="C212" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="3:3">
+    <row r="213" spans="1:3">
+      <c r="A213" s="2"/>
       <c r="C213" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="3:3">
+    <row r="214" spans="1:3">
+      <c r="A214" s="2"/>
       <c r="C214" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="3:3">
+    <row r="215" spans="1:3">
+      <c r="A215" s="2"/>
       <c r="C215" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="3:3">
+    <row r="216" spans="1:3">
+      <c r="A216" s="2"/>
       <c r="C216" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="3:3">
+    <row r="217" spans="1:3">
+      <c r="A217" s="2"/>
       <c r="C217" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="3:3">
+    <row r="218" spans="1:3">
+      <c r="A218" s="2"/>
       <c r="C218" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="3:3">
+    <row r="219" spans="1:3">
+      <c r="A219" s="2"/>
       <c r="C219" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="3:3">
+    <row r="220" spans="1:3">
+      <c r="A220" s="2"/>
       <c r="C220" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="3:3">
+    <row r="221" spans="1:3">
+      <c r="A221" s="2"/>
       <c r="C221" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="3:3">
+    <row r="222" spans="1:3">
+      <c r="A222" s="2"/>
       <c r="C222" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="3:3">
+    <row r="223" spans="1:3">
+      <c r="A223" s="2"/>
       <c r="C223" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="3:3">
+    <row r="224" spans="1:3">
+      <c r="A224" s="2"/>
       <c r="C224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="3:3">
+    <row r="225" spans="1:3">
+      <c r="A225" s="2"/>
       <c r="C225" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="3:3">
+    <row r="226" spans="1:3">
+      <c r="A226" s="2"/>
       <c r="C226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="3:3">
+    <row r="227" spans="1:3">
+      <c r="A227" s="2"/>
       <c r="C227" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="3:3">
+    <row r="228" spans="1:3">
+      <c r="A228" s="2"/>
       <c r="C228" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="3:3">
+    <row r="229" spans="1:3">
+      <c r="A229" s="2"/>
       <c r="C229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="3:3">
+    <row r="230" spans="1:3">
+      <c r="A230" s="2"/>
       <c r="C230" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="3:3">
+    <row r="231" spans="1:3">
+      <c r="A231" s="2"/>
       <c r="C231" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="3:3">
+    <row r="232" spans="1:3">
+      <c r="A232" s="2"/>
       <c r="C232" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="3:3">
+    <row r="233" spans="1:3">
+      <c r="A233" s="2"/>
       <c r="C233" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="3:3">
+    <row r="234" spans="1:3">
+      <c r="A234" s="2"/>
       <c r="C234" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="3:3">
+    <row r="235" spans="1:3">
+      <c r="A235" s="2"/>
       <c r="C235" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="3:3">
+    <row r="236" spans="1:3">
+      <c r="A236" s="2"/>
       <c r="C236" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="3:3">
+    <row r="237" spans="1:3">
+      <c r="A237" s="2"/>
       <c r="C237" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="3:3">
+    <row r="238" spans="1:3">
+      <c r="A238" s="2"/>
       <c r="C238" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="3:3">
+    <row r="239" spans="1:3">
+      <c r="A239" s="2"/>
       <c r="C239" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="3:3">
+    <row r="240" spans="1:3">
+      <c r="A240" s="2"/>
       <c r="C240" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="3:3">
+    <row r="241" spans="1:3">
+      <c r="A241" s="2"/>
       <c r="C241" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="3:3">
+    <row r="242" spans="1:3">
+      <c r="A242" s="2"/>
       <c r="C242" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="3:3">
+    <row r="243" spans="1:3">
+      <c r="A243" s="2"/>
       <c r="C243" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="3:3">
+    <row r="244" spans="1:3">
+      <c r="A244" s="2"/>
       <c r="C244" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="3:3">
+    <row r="245" spans="1:3">
+      <c r="A245" s="2"/>
       <c r="C245" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="3:3">
+    <row r="246" spans="1:3">
+      <c r="A246" s="2"/>
       <c r="C246" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="3:3">
+    <row r="247" spans="1:3">
+      <c r="A247" s="2"/>
       <c r="C247" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="3:3">
+    <row r="248" spans="1:3">
+      <c r="A248" s="2"/>
       <c r="C248" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="3:3">
+    <row r="249" spans="1:3">
+      <c r="A249" s="2"/>
       <c r="C249" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="3:3">
+    <row r="250" spans="1:3">
+      <c r="A250" s="2"/>
       <c r="C250" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="3:3">
+    <row r="251" spans="1:3">
+      <c r="A251" s="2"/>
       <c r="C251" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="3:3">
+    <row r="252" spans="1:3">
+      <c r="A252" s="2"/>
       <c r="C252" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="3:3">
+    <row r="253" spans="1:3">
+      <c r="A253" s="2"/>
       <c r="C253" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="3:3">
+    <row r="254" spans="1:3">
+      <c r="A254" s="2"/>
       <c r="C254" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="3:3">
+    <row r="255" spans="1:3">
+      <c r="A255" s="2"/>
       <c r="C255" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="3:3">
+    <row r="256" spans="1:3">
+      <c r="A256" s="2"/>
       <c r="C256" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="3:3">
+    <row r="257" spans="1:3">
+      <c r="A257" s="2"/>
       <c r="C257" t="str">
         <f t="shared" ref="C257:C320" si="4">PHONETIC(B257)</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="3:3">
+    <row r="258" spans="1:3">
+      <c r="A258" s="2"/>
       <c r="C258" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="3:3">
+    <row r="259" spans="1:3">
+      <c r="A259" s="2"/>
       <c r="C259" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="3:3">
+    <row r="260" spans="1:3">
+      <c r="A260" s="2"/>
       <c r="C260" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="3:3">
+    <row r="261" spans="1:3">
+      <c r="A261" s="2"/>
       <c r="C261" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="3:3">
+    <row r="262" spans="1:3">
+      <c r="A262" s="2"/>
       <c r="C262" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="3:3">
+    <row r="263" spans="1:3">
+      <c r="A263" s="2"/>
       <c r="C263" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="3:3">
+    <row r="264" spans="1:3">
+      <c r="A264" s="2"/>
       <c r="C264" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="3:3">
+    <row r="265" spans="1:3">
+      <c r="A265" s="2"/>
       <c r="C265" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="3:3">
+    <row r="266" spans="1:3">
+      <c r="A266" s="2"/>
       <c r="C266" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="3:3">
+    <row r="267" spans="1:3">
+      <c r="A267" s="2"/>
       <c r="C267" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="3:3">
+    <row r="268" spans="1:3">
+      <c r="A268" s="2"/>
       <c r="C268" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="3:3">
+    <row r="269" spans="1:3">
+      <c r="A269" s="2"/>
       <c r="C269" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="3:3">
+    <row r="270" spans="1:3">
+      <c r="A270" s="2"/>
       <c r="C270" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="3:3">
+    <row r="271" spans="1:3">
+      <c r="A271" s="2"/>
       <c r="C271" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="3:3">
+    <row r="272" spans="1:3">
+      <c r="A272" s="2"/>
       <c r="C272" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="3:3">
+    <row r="273" spans="1:3">
+      <c r="A273" s="2"/>
       <c r="C273" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="3:3">
+    <row r="274" spans="1:3">
+      <c r="A274" s="2"/>
       <c r="C274" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="3:3">
+    <row r="275" spans="1:3">
+      <c r="A275" s="2"/>
       <c r="C275" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="3:3">
+    <row r="276" spans="1:3">
+      <c r="A276" s="2"/>
       <c r="C276" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="3:3">
+    <row r="277" spans="1:3">
+      <c r="A277" s="2"/>
       <c r="C277" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="3:3">
+    <row r="278" spans="1:3">
+      <c r="A278" s="2"/>
       <c r="C278" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="3:3">
+    <row r="279" spans="1:3">
+      <c r="A279" s="2"/>
       <c r="C279" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="3:3">
+    <row r="280" spans="1:3">
+      <c r="A280" s="2"/>
       <c r="C280" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="3:3">
+    <row r="281" spans="1:3">
+      <c r="A281" s="2"/>
       <c r="C281" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="3:3">
+    <row r="282" spans="1:3">
+      <c r="A282" s="2"/>
       <c r="C282" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="3:3">
+    <row r="283" spans="1:3">
+      <c r="A283" s="2"/>
       <c r="C283" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="3:3">
+    <row r="284" spans="1:3">
+      <c r="A284" s="2"/>
       <c r="C284" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="3:3">
+    <row r="285" spans="1:3">
+      <c r="A285" s="2"/>
       <c r="C285" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="3:3">
+    <row r="286" spans="1:3">
+      <c r="A286" s="2"/>
       <c r="C286" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="3:3">
+    <row r="287" spans="1:3">
+      <c r="A287" s="2"/>
       <c r="C287" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="3:3">
+    <row r="288" spans="1:3">
+      <c r="A288" s="2"/>
       <c r="C288" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="3:3">
+    <row r="289" spans="1:3">
+      <c r="A289" s="2"/>
       <c r="C289" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="3:3">
+    <row r="290" spans="1:3">
+      <c r="A290" s="2"/>
       <c r="C290" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="3:3">
+    <row r="291" spans="1:3">
+      <c r="A291" s="2"/>
       <c r="C291" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="3:3">
+    <row r="292" spans="1:3">
+      <c r="A292" s="2"/>
       <c r="C292" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="3:3">
+    <row r="293" spans="1:3">
+      <c r="A293" s="2"/>
       <c r="C293" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="3:3">
+    <row r="294" spans="1:3">
+      <c r="A294" s="2"/>
       <c r="C294" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="3:3">
+    <row r="295" spans="1:3">
+      <c r="A295" s="2"/>
       <c r="C295" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="3:3">
+    <row r="296" spans="1:3">
+      <c r="A296" s="2"/>
       <c r="C296" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="3:3">
+    <row r="297" spans="1:3">
+      <c r="A297" s="2"/>
       <c r="C297" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="3:3">
+    <row r="298" spans="1:3">
+      <c r="A298" s="2"/>
       <c r="C298" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="3:3">
+    <row r="299" spans="1:3">
+      <c r="A299" s="2"/>
       <c r="C299" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="3:3">
+    <row r="300" spans="1:3">
+      <c r="A300" s="2"/>
       <c r="C300" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="3:3">
+    <row r="301" spans="1:3">
+      <c r="A301" s="2"/>
       <c r="C301" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="3:3">
+    <row r="302" spans="1:3">
+      <c r="A302" s="2"/>
       <c r="C302" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="3:3">
+    <row r="303" spans="1:3">
+      <c r="A303" s="2"/>
       <c r="C303" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="3:3">
+    <row r="304" spans="1:3">
+      <c r="A304" s="2"/>
       <c r="C304" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="3:3">
+    <row r="305" spans="1:3">
+      <c r="A305" s="2"/>
       <c r="C305" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="3:3">
+    <row r="306" spans="1:3">
+      <c r="A306" s="2"/>
       <c r="C306" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="3:3">
+    <row r="307" spans="1:3">
+      <c r="A307" s="2"/>
       <c r="C307" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="3:3">
+    <row r="308" spans="1:3">
+      <c r="A308" s="2"/>
       <c r="C308" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="3:3">
+    <row r="309" spans="1:3">
+      <c r="A309" s="2"/>
       <c r="C309" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="3:3">
+    <row r="310" spans="1:3">
+      <c r="A310" s="2"/>
       <c r="C310" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="3:3">
+    <row r="311" spans="1:3">
+      <c r="A311" s="2"/>
       <c r="C311" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="3:3">
+    <row r="312" spans="1:3">
+      <c r="A312" s="2"/>
       <c r="C312" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="3:3">
+    <row r="313" spans="1:3">
+      <c r="A313" s="2"/>
       <c r="C313" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="3:3">
+    <row r="314" spans="1:3">
+      <c r="A314" s="2"/>
       <c r="C314" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="3:3">
+    <row r="315" spans="1:3">
+      <c r="A315" s="2"/>
       <c r="C315" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="3:3">
+    <row r="316" spans="1:3">
+      <c r="A316" s="2"/>
       <c r="C316" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="3:3">
+    <row r="317" spans="1:3">
+      <c r="A317" s="2"/>
       <c r="C317" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="3:3">
+    <row r="318" spans="1:3">
+      <c r="A318" s="2"/>
       <c r="C318" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="3:3">
+    <row r="319" spans="1:3">
+      <c r="A319" s="2"/>
       <c r="C319" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="3:3">
+    <row r="320" spans="1:3">
+      <c r="A320" s="2"/>
       <c r="C320" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="3:3">
+    <row r="321" spans="1:3">
+      <c r="A321" s="2"/>
       <c r="C321" t="str">
         <f t="shared" ref="C321:C384" si="5">PHONETIC(B321)</f>
         <v/>
       </c>
     </row>
-    <row r="322" spans="3:3">
+    <row r="322" spans="1:3">
+      <c r="A322" s="2"/>
       <c r="C322" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="3:3">
+    <row r="323" spans="1:3">
+      <c r="A323" s="2"/>
       <c r="C323" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="3:3">
+    <row r="324" spans="1:3">
+      <c r="A324" s="2"/>
       <c r="C324" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="3:3">
+    <row r="325" spans="1:3">
+      <c r="A325" s="2"/>
       <c r="C325" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="3:3">
+    <row r="326" spans="1:3">
+      <c r="A326" s="2"/>
       <c r="C326" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="3:3">
+    <row r="327" spans="1:3">
+      <c r="A327" s="2"/>
       <c r="C327" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="3:3">
+    <row r="328" spans="1:3">
+      <c r="A328" s="2"/>
       <c r="C328" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="3:3">
+    <row r="329" spans="1:3">
+      <c r="A329" s="2"/>
       <c r="C329" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="3:3">
+    <row r="330" spans="1:3">
+      <c r="A330" s="2"/>
       <c r="C330" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="3:3">
+    <row r="331" spans="1:3">
+      <c r="A331" s="2"/>
       <c r="C331" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="3:3">
+    <row r="332" spans="1:3">
+      <c r="A332" s="2"/>
       <c r="C332" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="3:3">
+    <row r="333" spans="1:3">
+      <c r="A333" s="2"/>
       <c r="C333" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="3:3">
+    <row r="334" spans="1:3">
+      <c r="A334" s="2"/>
       <c r="C334" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="3:3">
+    <row r="335" spans="1:3">
+      <c r="A335" s="2"/>
       <c r="C335" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="3:3">
+    <row r="336" spans="1:3">
+      <c r="A336" s="2"/>
       <c r="C336" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="3:3">
+    <row r="337" spans="1:3">
+      <c r="A337" s="2"/>
       <c r="C337" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="3:3">
+    <row r="338" spans="1:3">
+      <c r="A338" s="2"/>
       <c r="C338" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="3:3">
+    <row r="339" spans="1:3">
+      <c r="A339" s="2"/>
       <c r="C339" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="3:3">
+    <row r="340" spans="1:3">
+      <c r="A340" s="2"/>
       <c r="C340" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="3:3">
+    <row r="341" spans="1:3">
+      <c r="A341" s="2"/>
       <c r="C341" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="3:3">
+    <row r="342" spans="1:3">
+      <c r="A342" s="2"/>
       <c r="C342" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="3:3">
+    <row r="343" spans="1:3">
+      <c r="A343" s="2"/>
       <c r="C343" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="3:3">
+    <row r="344" spans="1:3">
+      <c r="A344" s="2"/>
       <c r="C344" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="3:3">
+    <row r="345" spans="1:3">
+      <c r="A345" s="2"/>
       <c r="C345" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="3:3">
+    <row r="346" spans="1:3">
+      <c r="A346" s="2"/>
       <c r="C346" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="3:3">
+    <row r="347" spans="1:3">
+      <c r="A347" s="2"/>
       <c r="C347" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="3:3">
+    <row r="348" spans="1:3">
+      <c r="A348" s="2"/>
       <c r="C348" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="3:3">
+    <row r="349" spans="1:3">
+      <c r="A349" s="2"/>
       <c r="C349" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="3:3">
+    <row r="350" spans="1:3">
+      <c r="A350" s="2"/>
       <c r="C350" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="3:3">
+    <row r="351" spans="1:3">
+      <c r="A351" s="2"/>
       <c r="C351" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="3:3">
+    <row r="352" spans="1:3">
+      <c r="A352" s="2"/>
       <c r="C352" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="3:3">
+    <row r="353" spans="1:3">
+      <c r="A353" s="2"/>
       <c r="C353" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="3:3">
+    <row r="354" spans="1:3">
+      <c r="A354" s="2"/>
       <c r="C354" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="3:3">
+    <row r="355" spans="1:3">
+      <c r="A355" s="2"/>
       <c r="C355" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="3:3">
+    <row r="356" spans="1:3">
+      <c r="A356" s="2"/>
       <c r="C356" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="3:3">
+    <row r="357" spans="1:3">
+      <c r="A357" s="2"/>
       <c r="C357" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="3:3">
+    <row r="358" spans="1:3">
+      <c r="A358" s="2"/>
       <c r="C358" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="3:3">
+    <row r="359" spans="1:3">
+      <c r="A359" s="2"/>
       <c r="C359" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="3:3">
+    <row r="360" spans="1:3">
+      <c r="A360" s="2"/>
       <c r="C360" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="3:3">
+    <row r="361" spans="1:3">
+      <c r="A361" s="2"/>
       <c r="C361" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="3:3">
+    <row r="362" spans="1:3">
+      <c r="A362" s="2"/>
       <c r="C362" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="3:3">
+    <row r="363" spans="1:3">
+      <c r="A363" s="2"/>
       <c r="C363" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="3:3">
+    <row r="364" spans="1:3">
+      <c r="A364" s="2"/>
       <c r="C364" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="3:3">
+    <row r="365" spans="1:3">
+      <c r="A365" s="2"/>
       <c r="C365" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="3:3">
+    <row r="366" spans="1:3">
+      <c r="A366" s="2"/>
       <c r="C366" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="3:3">
+    <row r="367" spans="1:3">
+      <c r="A367" s="2"/>
       <c r="C367" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="3:3">
+    <row r="368" spans="1:3">
+      <c r="A368" s="2"/>
       <c r="C368" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="3:3">
+    <row r="369" spans="1:3">
+      <c r="A369" s="2"/>
       <c r="C369" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="3:3">
+    <row r="370" spans="1:3">
+      <c r="A370" s="2"/>
       <c r="C370" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="3:3">
+    <row r="371" spans="1:3">
+      <c r="A371" s="2"/>
       <c r="C371" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="3:3">
+    <row r="372" spans="1:3">
+      <c r="A372" s="2"/>
       <c r="C372" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="3:3">
+    <row r="373" spans="1:3">
+      <c r="A373" s="2"/>
       <c r="C373" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="3:3">
+    <row r="374" spans="1:3">
+      <c r="A374" s="2"/>
       <c r="C374" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="3:3">
+    <row r="375" spans="1:3">
+      <c r="A375" s="2"/>
       <c r="C375" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="3:3">
+    <row r="376" spans="1:3">
+      <c r="A376" s="2"/>
       <c r="C376" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="3:3">
+    <row r="377" spans="1:3">
+      <c r="A377" s="2"/>
       <c r="C377" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="3:3">
+    <row r="378" spans="1:3">
+      <c r="A378" s="2"/>
       <c r="C378" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="3:3">
+    <row r="379" spans="1:3">
+      <c r="A379" s="2"/>
       <c r="C379" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="3:3">
+    <row r="380" spans="1:3">
+      <c r="A380" s="2"/>
       <c r="C380" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="3:3">
+    <row r="381" spans="1:3">
+      <c r="A381" s="2"/>
       <c r="C381" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="3:3">
+    <row r="382" spans="1:3">
+      <c r="A382" s="2"/>
       <c r="C382" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="3:3">
+    <row r="383" spans="1:3">
+      <c r="A383" s="2"/>
       <c r="C383" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="3:3">
+    <row r="384" spans="1:3">
+      <c r="A384" s="2"/>
       <c r="C384" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="3:3">
+    <row r="385" spans="1:3">
+      <c r="A385" s="2"/>
       <c r="C385" t="str">
         <f t="shared" ref="C385:C448" si="6">PHONETIC(B385)</f>
         <v/>
       </c>
     </row>
-    <row r="386" spans="3:3">
+    <row r="386" spans="1:3">
+      <c r="A386" s="2"/>
       <c r="C386" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="3:3">
+    <row r="387" spans="1:3">
+      <c r="A387" s="2"/>
       <c r="C387" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="3:3">
+    <row r="388" spans="1:3">
+      <c r="A388" s="2"/>
       <c r="C388" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="3:3">
+    <row r="389" spans="1:3">
+      <c r="A389" s="2"/>
       <c r="C389" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="3:3">
+    <row r="390" spans="1:3">
+      <c r="A390" s="2"/>
       <c r="C390" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="3:3">
+    <row r="391" spans="1:3">
+      <c r="A391" s="2"/>
       <c r="C391" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="3:3">
+    <row r="392" spans="1:3">
+      <c r="A392" s="2"/>
       <c r="C392" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="3:3">
+    <row r="393" spans="1:3">
+      <c r="A393" s="2"/>
       <c r="C393" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="3:3">
+    <row r="394" spans="1:3">
+      <c r="A394" s="2"/>
       <c r="C394" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="3:3">
+    <row r="395" spans="1:3">
+      <c r="A395" s="2"/>
       <c r="C395" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="3:3">
+    <row r="396" spans="1:3">
+      <c r="A396" s="2"/>
       <c r="C396" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="3:3">
+    <row r="397" spans="1:3">
+      <c r="A397" s="2"/>
       <c r="C397" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="3:3">
+    <row r="398" spans="1:3">
+      <c r="A398" s="2"/>
       <c r="C398" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="3:3">
+    <row r="399" spans="1:3">
+      <c r="A399" s="2"/>
       <c r="C399" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="3:3">
+    <row r="400" spans="1:3">
+      <c r="A400" s="2"/>
       <c r="C400" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="3:3">
+    <row r="401" spans="1:3">
+      <c r="A401" s="2"/>
       <c r="C401" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="3:3">
+    <row r="402" spans="1:3">
+      <c r="A402" s="2"/>
       <c r="C402" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="3:3">
+    <row r="403" spans="1:3">
+      <c r="A403" s="2"/>
       <c r="C403" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="3:3">
+    <row r="404" spans="1:3">
+      <c r="A404" s="2"/>
       <c r="C404" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="3:3">
+    <row r="405" spans="1:3">
+      <c r="A405" s="2"/>
       <c r="C405" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="3:3">
+    <row r="406" spans="1:3">
+      <c r="A406" s="2"/>
       <c r="C406" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="3:3">
+    <row r="407" spans="1:3">
+      <c r="A407" s="2"/>
       <c r="C407" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="3:3">
+    <row r="408" spans="1:3">
+      <c r="A408" s="2"/>
       <c r="C408" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="3:3">
+    <row r="409" spans="1:3">
+      <c r="A409" s="2"/>
       <c r="C409" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="3:3">
+    <row r="410" spans="1:3">
+      <c r="A410" s="2"/>
       <c r="C410" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="3:3">
+    <row r="411" spans="1:3">
+      <c r="A411" s="2"/>
       <c r="C411" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="3:3">
+    <row r="412" spans="1:3">
+      <c r="A412" s="2"/>
       <c r="C412" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="3:3">
+    <row r="413" spans="1:3">
+      <c r="A413" s="2"/>
       <c r="C413" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="3:3">
+    <row r="414" spans="1:3">
+      <c r="A414" s="2"/>
       <c r="C414" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="3:3">
+    <row r="415" spans="1:3">
+      <c r="A415" s="2"/>
       <c r="C415" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="3:3">
+    <row r="416" spans="1:3">
+      <c r="A416" s="2"/>
       <c r="C416" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="3:3">
+    <row r="417" spans="1:3">
+      <c r="A417" s="2"/>
       <c r="C417" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="3:3">
+    <row r="418" spans="1:3">
+      <c r="A418" s="2"/>
       <c r="C418" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="3:3">
+    <row r="419" spans="1:3">
+      <c r="A419" s="2"/>
       <c r="C419" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="3:3">
+    <row r="420" spans="1:3">
+      <c r="A420" s="2"/>
       <c r="C420" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="3:3">
+    <row r="421" spans="1:3">
+      <c r="A421" s="2"/>
       <c r="C421" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="3:3">
+    <row r="422" spans="1:3">
+      <c r="A422" s="2"/>
       <c r="C422" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="3:3">
+    <row r="423" spans="1:3">
+      <c r="A423" s="2"/>
       <c r="C423" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="3:3">
+    <row r="424" spans="1:3">
+      <c r="A424" s="2"/>
       <c r="C424" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="3:3">
+    <row r="425" spans="1:3">
+      <c r="A425" s="2"/>
       <c r="C425" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="3:3">
+    <row r="426" spans="1:3">
+      <c r="A426" s="2"/>
       <c r="C426" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="3:3">
+    <row r="427" spans="1:3">
+      <c r="A427" s="2"/>
       <c r="C427" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="3:3">
+    <row r="428" spans="1:3">
+      <c r="A428" s="2"/>
       <c r="C428" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="3:3">
+    <row r="429" spans="1:3">
+      <c r="A429" s="2"/>
       <c r="C429" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="3:3">
+    <row r="430" spans="1:3">
+      <c r="A430" s="2"/>
       <c r="C430" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="3:3">
+    <row r="431" spans="1:3">
+      <c r="A431" s="2"/>
       <c r="C431" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="3:3">
+    <row r="432" spans="1:3">
+      <c r="A432" s="2"/>
       <c r="C432" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="3:3">
+    <row r="433" spans="1:3">
+      <c r="A433" s="2"/>
       <c r="C433" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="3:3">
+    <row r="434" spans="1:3">
+      <c r="A434" s="2"/>
       <c r="C434" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="3:3">
+    <row r="435" spans="1:3">
+      <c r="A435" s="2"/>
       <c r="C435" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="3:3">
+    <row r="436" spans="1:3">
+      <c r="A436" s="2"/>
       <c r="C436" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="3:3">
+    <row r="437" spans="1:3">
+      <c r="A437" s="2"/>
       <c r="C437" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="3:3">
+    <row r="438" spans="1:3">
+      <c r="A438" s="2"/>
       <c r="C438" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="3:3">
+    <row r="439" spans="1:3">
+      <c r="A439" s="2"/>
       <c r="C439" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="3:3">
+    <row r="440" spans="1:3">
+      <c r="A440" s="2"/>
       <c r="C440" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="3:3">
+    <row r="441" spans="1:3">
+      <c r="A441" s="2"/>
       <c r="C441" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="3:3">
+    <row r="442" spans="1:3">
+      <c r="A442" s="2"/>
       <c r="C442" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="3:3">
+    <row r="443" spans="1:3">
+      <c r="A443" s="2"/>
       <c r="C443" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="3:3">
+    <row r="444" spans="1:3">
+      <c r="A444" s="2"/>
       <c r="C444" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="3:3">
+    <row r="445" spans="1:3">
+      <c r="A445" s="2"/>
       <c r="C445" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="3:3">
+    <row r="446" spans="1:3">
+      <c r="A446" s="2"/>
       <c r="C446" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="3:3">
+    <row r="447" spans="1:3">
+      <c r="A447" s="2"/>
       <c r="C447" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="3:3">
+    <row r="448" spans="1:3">
+      <c r="A448" s="2"/>
       <c r="C448" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="3:3">
+    <row r="449" spans="1:3">
+      <c r="A449" s="2"/>
       <c r="C449" t="str">
         <f t="shared" ref="C449:C512" si="7">PHONETIC(B449)</f>
         <v/>
       </c>
     </row>
-    <row r="450" spans="3:3">
+    <row r="450" spans="1:3">
+      <c r="A450" s="2"/>
       <c r="C450" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="3:3">
+    <row r="451" spans="1:3">
+      <c r="A451" s="2"/>
       <c r="C451" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="3:3">
+    <row r="452" spans="1:3">
+      <c r="A452" s="2"/>
       <c r="C452" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="3:3">
+    <row r="453" spans="1:3">
+      <c r="A453" s="2"/>
       <c r="C453" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="3:3">
+    <row r="454" spans="1:3">
+      <c r="A454" s="2"/>
       <c r="C454" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="3:3">
+    <row r="455" spans="1:3">
+      <c r="A455" s="2"/>
       <c r="C455" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="3:3">
+    <row r="456" spans="1:3">
+      <c r="A456" s="2"/>
       <c r="C456" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="3:3">
+    <row r="457" spans="1:3">
+      <c r="A457" s="2"/>
       <c r="C457" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="3:3">
+    <row r="458" spans="1:3">
+      <c r="A458" s="2"/>
       <c r="C458" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="3:3">
+    <row r="459" spans="1:3">
+      <c r="A459" s="2"/>
       <c r="C459" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="3:3">
+    <row r="460" spans="1:3">
+      <c r="A460" s="2"/>
       <c r="C460" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="3:3">
+    <row r="461" spans="1:3">
+      <c r="A461" s="2"/>
       <c r="C461" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="3:3">
+    <row r="462" spans="1:3">
+      <c r="A462" s="2"/>
       <c r="C462" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="3:3">
+    <row r="463" spans="1:3">
+      <c r="A463" s="2"/>
       <c r="C463" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="3:3">
+    <row r="464" spans="1:3">
+      <c r="A464" s="2"/>
       <c r="C464" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="3:3">
+    <row r="465" spans="1:3">
+      <c r="A465" s="2"/>
       <c r="C465" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="3:3">
+    <row r="466" spans="1:3">
+      <c r="A466" s="2"/>
       <c r="C466" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="3:3">
+    <row r="467" spans="1:3">
+      <c r="A467" s="2"/>
       <c r="C467" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="3:3">
+    <row r="468" spans="1:3">
+      <c r="A468" s="2"/>
       <c r="C468" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="3:3">
+    <row r="469" spans="1:3">
+      <c r="A469" s="2"/>
       <c r="C469" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="3:3">
+    <row r="470" spans="1:3">
+      <c r="A470" s="2"/>
       <c r="C470" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="3:3">
+    <row r="471" spans="1:3">
+      <c r="A471" s="2"/>
       <c r="C471" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="3:3">
+    <row r="472" spans="1:3">
+      <c r="A472" s="2"/>
       <c r="C472" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="3:3">
+    <row r="473" spans="1:3">
+      <c r="A473" s="2"/>
       <c r="C473" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="3:3">
+    <row r="474" spans="1:3">
+      <c r="A474" s="2"/>
       <c r="C474" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="3:3">
+    <row r="475" spans="1:3">
+      <c r="A475" s="2"/>
       <c r="C475" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="3:3">
+    <row r="476" spans="1:3">
+      <c r="A476" s="2"/>
       <c r="C476" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="3:3">
+    <row r="477" spans="1:3">
+      <c r="A477" s="2"/>
       <c r="C477" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="3:3">
+    <row r="478" spans="1:3">
+      <c r="A478" s="2"/>
       <c r="C478" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="3:3">
+    <row r="479" spans="1:3">
+      <c r="A479" s="2"/>
       <c r="C479" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="3:3">
+    <row r="480" spans="1:3">
+      <c r="A480" s="2"/>
       <c r="C480" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="3:3">
+    <row r="481" spans="1:3">
+      <c r="A481" s="2"/>
       <c r="C481" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="3:3">
+    <row r="482" spans="1:3">
+      <c r="A482" s="2"/>
       <c r="C482" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="3:3">
+    <row r="483" spans="1:3">
+      <c r="A483" s="2"/>
       <c r="C483" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="484" spans="3:3">
+    <row r="484" spans="1:3">
+      <c r="A484" s="2"/>
       <c r="C484" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="485" spans="3:3">
+    <row r="485" spans="1:3">
+      <c r="A485" s="2"/>
       <c r="C485" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="486" spans="3:3">
+    <row r="486" spans="1:3">
+      <c r="A486" s="2"/>
       <c r="C486" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="487" spans="3:3">
+    <row r="487" spans="1:3">
+      <c r="A487" s="2"/>
       <c r="C487" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="488" spans="3:3">
+    <row r="488" spans="1:3">
+      <c r="A488" s="2"/>
       <c r="C488" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="489" spans="3:3">
+    <row r="489" spans="1:3">
+      <c r="A489" s="2"/>
       <c r="C489" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="490" spans="3:3">
+    <row r="490" spans="1:3">
+      <c r="A490" s="2"/>
       <c r="C490" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="491" spans="3:3">
+    <row r="491" spans="1:3">
+      <c r="A491" s="2"/>
       <c r="C491" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="492" spans="3:3">
+    <row r="492" spans="1:3">
+      <c r="A492" s="2"/>
       <c r="C492" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="493" spans="3:3">
+    <row r="493" spans="1:3">
+      <c r="A493" s="2"/>
       <c r="C493" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="494" spans="3:3">
+    <row r="494" spans="1:3">
+      <c r="A494" s="2"/>
       <c r="C494" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="495" spans="3:3">
+    <row r="495" spans="1:3">
+      <c r="A495" s="2"/>
       <c r="C495" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="496" spans="3:3">
+    <row r="496" spans="1:3">
+      <c r="A496" s="2"/>
       <c r="C496" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="497" spans="3:3">
+    <row r="497" spans="1:3">
+      <c r="A497" s="2"/>
       <c r="C497" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="498" spans="3:3">
+    <row r="498" spans="1:3">
+      <c r="A498" s="2"/>
       <c r="C498" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="499" spans="3:3">
+    <row r="499" spans="1:3">
+      <c r="A499" s="2"/>
       <c r="C499" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="500" spans="3:3">
+    <row r="500" spans="1:3">
+      <c r="A500" s="2"/>
       <c r="C500" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="501" spans="3:3">
+    <row r="501" spans="1:3">
+      <c r="A501" s="2"/>
       <c r="C501" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="502" spans="3:3">
+    <row r="502" spans="1:3">
+      <c r="A502" s="2"/>
       <c r="C502" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="503" spans="3:3">
+    <row r="503" spans="1:3">
+      <c r="A503" s="2"/>
       <c r="C503" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="504" spans="3:3">
+    <row r="504" spans="1:3">
+      <c r="A504" s="2"/>
       <c r="C504" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="505" spans="3:3">
+    <row r="505" spans="1:3">
+      <c r="A505" s="2"/>
       <c r="C505" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="506" spans="3:3">
+    <row r="506" spans="1:3">
+      <c r="A506" s="2"/>
       <c r="C506" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="507" spans="3:3">
+    <row r="507" spans="1:3">
+      <c r="A507" s="2"/>
       <c r="C507" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="508" spans="3:3">
+    <row r="508" spans="1:3">
+      <c r="A508" s="2"/>
       <c r="C508" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="509" spans="3:3">
+    <row r="509" spans="1:3">
+      <c r="A509" s="2"/>
       <c r="C509" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="510" spans="3:3">
+    <row r="510" spans="1:3">
+      <c r="A510" s="2"/>
       <c r="C510" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="511" spans="3:3">
+    <row r="511" spans="1:3">
+      <c r="A511" s="2"/>
       <c r="C511" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="512" spans="3:3">
+    <row r="512" spans="1:3">
+      <c r="A512" s="2"/>
       <c r="C512" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="513" spans="3:3">
+    <row r="513" spans="1:3">
+      <c r="A513" s="2"/>
       <c r="C513" t="str">
         <f t="shared" ref="C513:C576" si="8">PHONETIC(B513)</f>
         <v/>
       </c>
     </row>
-    <row r="514" spans="3:3">
+    <row r="514" spans="1:3">
+      <c r="A514" s="2"/>
       <c r="C514" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="515" spans="3:3">
+    <row r="515" spans="1:3">
+      <c r="A515" s="2"/>
       <c r="C515" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="516" spans="3:3">
+    <row r="516" spans="1:3">
+      <c r="A516" s="2"/>
       <c r="C516" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="517" spans="3:3">
+    <row r="517" spans="1:3">
+      <c r="A517" s="2"/>
       <c r="C517" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="518" spans="3:3">
+    <row r="518" spans="1:3">
+      <c r="A518" s="2"/>
       <c r="C518" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="519" spans="3:3">
+    <row r="519" spans="1:3">
+      <c r="A519" s="2"/>
       <c r="C519" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="520" spans="3:3">
+    <row r="520" spans="1:3">
+      <c r="A520" s="2"/>
       <c r="C520" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="521" spans="3:3">
+    <row r="521" spans="1:3">
+      <c r="A521" s="2"/>
       <c r="C521" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="522" spans="3:3">
+    <row r="522" spans="1:3">
+      <c r="A522" s="2"/>
       <c r="C522" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="523" spans="3:3">
+    <row r="523" spans="1:3">
+      <c r="A523" s="2"/>
       <c r="C523" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="524" spans="3:3">
+    <row r="524" spans="1:3">
+      <c r="A524" s="2"/>
       <c r="C524" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="525" spans="3:3">
+    <row r="525" spans="1:3">
+      <c r="A525" s="2"/>
       <c r="C525" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="526" spans="3:3">
+    <row r="526" spans="1:3">
+      <c r="A526" s="2"/>
       <c r="C526" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="527" spans="3:3">
+    <row r="527" spans="1:3">
       <c r="C527" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="528" spans="3:3">
+    <row r="528" spans="1:3">
       <c r="C528" t="str">
         <f t="shared" si="8"/>
         <v/>

--- a/単語帳.xlsx
+++ b/単語帳.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
   <si>
     <t>時期</t>
     <rPh sb="0" eb="2">
@@ -970,6 +970,533 @@
       </rPr>
       <t>子的六十分之一</t>
     </r>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>没する</t>
+  </si>
+  <si>
+    <t>光らす</t>
+  </si>
+  <si>
+    <t>拭う</t>
+  </si>
+  <si>
+    <t>添える</t>
+  </si>
+  <si>
+    <t>滑らす</t>
+  </si>
+  <si>
+    <t>儲かる</t>
+  </si>
+  <si>
+    <t>葺き替え</t>
+  </si>
+  <si>
+    <t>突貫</t>
+  </si>
+  <si>
+    <t>棺</t>
+  </si>
+  <si>
+    <t>賜う</t>
+  </si>
+  <si>
+    <t>聳える</t>
+  </si>
+  <si>
+    <t>ぼっする</t>
+  </si>
+  <si>
+    <t>ひからす</t>
+  </si>
+  <si>
+    <t>ぬぐう</t>
+  </si>
+  <si>
+    <t>擦掉</t>
+  </si>
+  <si>
+    <t>そえる</t>
+  </si>
+  <si>
+    <t>增添</t>
+  </si>
+  <si>
+    <t>すべらす</t>
+  </si>
+  <si>
+    <t>もうかる</t>
+  </si>
+  <si>
+    <r>
+      <t>有利可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+  </si>
+  <si>
+    <t>ふきかえ</t>
+  </si>
+  <si>
+    <r>
+      <t>重葺房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顶</t>
+    </r>
+  </si>
+  <si>
+    <t>とっかん</t>
+  </si>
+  <si>
+    <r>
+      <t>突</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击</t>
+    </r>
+  </si>
+  <si>
+    <t>ひつぎ</t>
+  </si>
+  <si>
+    <t>たまう</t>
+  </si>
+  <si>
+    <t>そびえる</t>
+  </si>
+  <si>
+    <r>
+      <t>耸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>立</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>沉没，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没</t>
+    </r>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>光、使光亮，擦亮</t>
+    </r>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>使滑走</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>棺材</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>给，赐</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>スクラップ</t>
+  </si>
+  <si>
+    <t>プリザーブドフラワー</t>
+  </si>
+  <si>
+    <t>施錠</t>
+  </si>
+  <si>
+    <t>臥す</t>
+  </si>
+  <si>
+    <t>宦官</t>
+  </si>
+  <si>
+    <t>古刹</t>
+  </si>
+  <si>
+    <t>すくらっぷ</t>
+  </si>
+  <si>
+    <t>ぷりざーぶどふらわー</t>
+  </si>
+  <si>
+    <t>せじょう</t>
+  </si>
+  <si>
+    <r>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锁</t>
+    </r>
+  </si>
+  <si>
+    <t>ふす</t>
+  </si>
+  <si>
+    <t>かんがん</t>
+  </si>
+  <si>
+    <r>
+      <t>太</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监</t>
+    </r>
+  </si>
+  <si>
+    <t>こさつ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>废</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>料，碎片，碎屑</t>
+    </r>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鲜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花，英：preserved flower &lt;br&gt;用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鲜剂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和着色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>润</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后干燥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鲜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花，不同于干花，它可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鲜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花的柔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和色彩。</t>
+    </r>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>躺下，卧倒。生病躺下</t>
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
 </sst>
@@ -1367,8 +1894,8 @@
   <dimension ref="A1:D1725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1806,202 +2333,291 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2"/>
-      <c r="C36" t="str">
-        <f t="shared" ref="C17:C64" si="0">PHONETIC(B36)</f>
-        <v/>
+      <c r="A36" s="2">
+        <v>42701</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2"/>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2"/>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2"/>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2"/>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2"/>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2"/>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2"/>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2"/>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2"/>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2"/>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A47" s="2">
+        <v>42706</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2"/>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2"/>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2"/>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2"/>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2"/>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="2"/>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <f t="shared" ref="C47:C64" si="0">PHONETIC(B53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="2"/>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" s="2"/>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" s="2"/>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" s="2"/>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" s="2"/>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" s="2"/>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" s="2"/>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" s="2"/>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" s="2"/>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" s="2"/>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" s="2"/>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
